--- a/biology/Zoologie/Dipsadoboa_shrevei/Dipsadoboa_shrevei.xlsx
+++ b/biology/Zoologie/Dipsadoboa_shrevei/Dipsadoboa_shrevei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dipsadoboa shrevei est une espèce de serpents de la famille des Colubridae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dipsadoboa shrevei est une espèce de serpents de la famille des Colubridae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre[1] en Angola, en République démocratique du Congo (à l'exception du Nord de ce pays) et en Zambie. Sa présence est incertaine en République du Congo.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre en Angola, en République démocratique du Congo (à l'exception du Nord de ce pays) et en Zambie. Sa présence est incertaine en République du Congo.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans sa description[2] Loveridge indique que le spécimen en sa possession mesure 93 cm dont 19 cm pour la queue, et précise qu'il s'agit d'une espèce arboricole.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans sa description Loveridge indique que le spécimen en sa possession mesure 93 cm dont 19 cm pour la queue, et précise qu'il s'agit d'une espèce arboricole.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon The Reptile Database   (14 février 2014)[3] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon The Reptile Database   (14 février 2014) :
 Dipsadoboa shrevei kageleri (Uthmöller, 1939)
 Dipsadoboa shrevei shrevei (Loveridge, 1932)</t>
         </is>
@@ -605,9 +623,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom d'espèce[2] lui a été donné en l'honneur de Benjamin Shreve, herpétologiste américain du Museum of Comparative Zoology.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom d'espèce lui a été donné en l'honneur de Benjamin Shreve, herpétologiste américain du Museum of Comparative Zoology.
 </t>
         </is>
       </c>
@@ -636,7 +656,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Loveridge, 1932 : New opisthoglyphous snakes of the genera Crotaphopeltis and Trimerorhinus from Angola and Kenya Colony. Proceedings of the Biological Society of Washington, vol. 45, p. 83-86 (texte intégral).
 Uthmöller, 1939 : Über eine neue Rasse von Crotaphopeltis hotamboiea. Zoologischer Anzeiger, vol. 125, p. 108-112.</t>
